--- a/tables/1974/Table 14.xlsx
+++ b/tables/1974/Table 14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAdetuyi\OneDrive - CGIAR\WORK\MR PRASAD\2022\7. August\Annual Report\New_Tables\1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>Table 14. Effects of stem number and population on cassava cultivar 53101, fresh root yield (kg/plant) at 12 months.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Stem no.</t>
   </si>
@@ -40,14 +36,40 @@
   </si>
   <si>
     <t>&gt;4</t>
+  </si>
+  <si>
+    <t>Table name:</t>
+  </si>
+  <si>
+    <t>Effects of stem number and population on cassava cultivar 53101, fresh root yield (kg/plant) at 12 months.</t>
+  </si>
+  <si>
+    <t>Foot Note:</t>
+  </si>
+  <si>
+    <t>LSD 0.05:</t>
+  </si>
+  <si>
+    <t>Stem No. (S):0.31</t>
+  </si>
+  <si>
+    <t>Population (P): 0.32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -71,13 +93,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -360,141 +506,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="D6" s="8">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.29</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.38</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2.33</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.52</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.63</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B8" s="11">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.27</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.34</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.29</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.38</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.33</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C8" s="11">
         <v>2.46</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="11">
         <v>2.25</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
